--- a/microservices/download templates/src/templatesStorage/templates_original/polarTemplate.xlsx
+++ b/microservices/download templates/src/templatesStorage/templates_original/polarTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DORA\Documents\GitHub\SaaS23-60\microservices\download templates\src\templatesStorage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DORA\Documents\GitHub\SaaS23-60\microservices\download templates\src\templatesStorage\templates_original\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D31C486-E714-4675-899B-E1F6AEB6EF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DC31F4-ED68-437C-9427-551A7306F802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{46EB44D5-4E4C-4FBF-9B9B-9B8682C03FE5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Chart's Title</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>ChartName</t>
+  </si>
+  <si>
+    <t>X Categories</t>
   </si>
 </sst>
 </file>
@@ -489,7 +492,7 @@
   <dimension ref="A1:BY462"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,6 +555,9 @@
       </c>
       <c r="F5" s="5" t="s">
         <v>11</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:77" x14ac:dyDescent="0.3">
@@ -36658,7 +36664,7 @@
       <c r="BY462" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hnrks722rKZwPaFFc/fMmK6QgMAvAW8HRVKoiMtJpjQ3J8FLWYeBZdP4opPB/3z1ShCRBKUQnFAPQ3Tt1Wrwzg==" saltValue="E0GvOJ30PofVRPdKcY79WA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Z0TLt01XSh0xwV0FoWAv4ypqBnBocI2G4RVgAoH+TpO43U+tadtBnV94rB58pQ08N8/HZxdWXYqgvHDonfGF6w==" saltValue="b0cqsEmoHRvEmD1Kc4XrBw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange algorithmName="SHA-512" hashValue="grJ6j9Pg3fR0ozyFbWId1iGPDl+m/wcgohlsBFVdFPlu3vLW2Q2diNvdtQZ4Y/z885xl+QQPzwXqYSHB89EeWw==" saltValue="Iwv+UuEJEwdeanhrSECMnw==" spinCount="100000" sqref="A1:XFD2" name="Range1"/>
   </protectedRanges>
